--- a/Recursos.xlsx
+++ b/Recursos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
   <si>
     <t>Recursos Naturales</t>
   </si>
@@ -120,10 +120,256 @@
     <t>Glaciares</t>
   </si>
   <si>
-    <t>Vegetales</t>
-  </si>
-  <si>
     <t>Falda/Pie montaña</t>
+  </si>
+  <si>
+    <t>Abeto</t>
+  </si>
+  <si>
+    <t>Construccion / Energia</t>
+  </si>
+  <si>
+    <t>Pino</t>
+  </si>
+  <si>
+    <t>Roble</t>
+  </si>
+  <si>
+    <t>Cipres</t>
+  </si>
+  <si>
+    <t>Mimbre</t>
+  </si>
+  <si>
+    <t>Altitud</t>
+  </si>
+  <si>
+    <t>Humedad</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Esparto</t>
+  </si>
+  <si>
+    <t>Fibra Textil</t>
+  </si>
+  <si>
+    <t>Junco</t>
+  </si>
+  <si>
+    <t>Cañamo</t>
+  </si>
+  <si>
+    <t>Turba</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Alimentación</t>
+  </si>
+  <si>
+    <t>Cebada</t>
+  </si>
+  <si>
+    <t>Baja / Media</t>
+  </si>
+  <si>
+    <t>Lupulo</t>
+  </si>
+  <si>
+    <t>Lino</t>
+  </si>
+  <si>
+    <t>Algodón</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
+  <si>
+    <t>Pastos</t>
+  </si>
+  <si>
+    <t>Media / Alta</t>
+  </si>
+  <si>
+    <t>Legumbres</t>
+  </si>
+  <si>
+    <t>Hortalizas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baja</t>
+  </si>
+  <si>
+    <t>Verduras</t>
+  </si>
+  <si>
+    <t>Frutas</t>
+  </si>
+  <si>
+    <t>Herbaceas</t>
+  </si>
+  <si>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>Hongos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alimentación / Medicinal / Ritual</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Vegetal</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Guarda</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Guarda / Ritual</t>
+  </si>
+  <si>
+    <t>Vacuno</t>
+  </si>
+  <si>
+    <t>Alimentacion / Piel</t>
+  </si>
+  <si>
+    <t>Ovino</t>
+  </si>
+  <si>
+    <t>Almentacion / Piel / Textil</t>
+  </si>
+  <si>
+    <t>Caprino</t>
+  </si>
+  <si>
+    <t>Alimentacion / Piel / Textil</t>
+  </si>
+  <si>
+    <t>Porcino</t>
+  </si>
+  <si>
+    <t>Caballar</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Aviar</t>
+  </si>
+  <si>
+    <t>Abejas</t>
+  </si>
+  <si>
+    <t>Alimentacion / Medicinal</t>
+  </si>
+  <si>
+    <t>Media / Baja</t>
+  </si>
+  <si>
+    <t>Gusanos de Seda</t>
+  </si>
+  <si>
+    <t>Textil</t>
+  </si>
+  <si>
+    <t>Media /Baja</t>
+  </si>
+  <si>
+    <t>Osos</t>
+  </si>
+  <si>
+    <t>Lobos</t>
+  </si>
+  <si>
+    <t>Castores</t>
+  </si>
+  <si>
+    <t>Nutrias</t>
+  </si>
+  <si>
+    <t>Faisan</t>
+  </si>
+  <si>
+    <t>Alimentacion / Guarda / Plumas</t>
+  </si>
+  <si>
+    <t>Alimentacion / Plumas</t>
+  </si>
+  <si>
+    <t>Perdiz</t>
+  </si>
+  <si>
+    <t>Alimentacion</t>
+  </si>
+  <si>
+    <t>Zorros</t>
+  </si>
+  <si>
+    <t>Piel</t>
+  </si>
+  <si>
+    <t>Peces Agua Dulce</t>
+  </si>
+  <si>
+    <t>Peces Marinos</t>
+  </si>
+  <si>
+    <t>Ballenas</t>
+  </si>
+  <si>
+    <t>Alimentacion / Aceite</t>
+  </si>
+  <si>
+    <t>Marisco</t>
+  </si>
+  <si>
+    <t>Alimentacion / Suntuario</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Costa / Montañas</t>
+  </si>
+  <si>
+    <t>Perlas</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Piedras Preciosas</t>
+  </si>
+  <si>
+    <t>Petrum Oleum</t>
+  </si>
+  <si>
+    <t>Algas</t>
   </si>
 </sst>
 </file>
@@ -162,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +432,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -219,14 +471,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,7 +514,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -253,16 +532,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="3" builtinId="39"/>
+    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -556,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:E25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83:Q83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,15 +889,15 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5"/>
@@ -610,7 +910,7 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="C7" s="6"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="4"/>
@@ -624,11 +924,11 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
@@ -644,18 +944,18 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -664,56 +964,56 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="G10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="K10" s="9" t="s">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="9" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="G11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="9" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="G12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="K12" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,16 +1024,16 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="G13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
       <c r="K13" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,16 +1044,16 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="9" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="G14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
       <c r="K14" s="1" t="s">
         <v>8</v>
       </c>
@@ -764,16 +1064,16 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="G15" s="9" t="s">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
       <c r="K15" s="1" t="s">
         <v>8</v>
       </c>
@@ -784,164 +1084,192 @@
       <c r="A16">
         <v>9</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="9" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="G16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
       <c r="K16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="9" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="G17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="K17" s="9" t="s">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="G18" s="9" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="G18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
       <c r="K18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>12</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="9" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="G19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="K19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>13</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="G20" s="9" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="G20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="K20" s="9" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="K20" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>14</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="G21" s="9" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="K21" s="9" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="C23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22">
         <v>15</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="G22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="G23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="K23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="G24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="K24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -949,261 +1277,1605 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>17</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28">
+    <row r="26" spans="1:17">
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="C28" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30">
         <v>18</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29">
+      <c r="C30" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="K30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="O30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31">
         <v>19</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
+      <c r="C31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="G31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="K31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="O31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32">
         <v>20</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
+      <c r="C32" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="K32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="O32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33">
         <v>21</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
+      <c r="C33" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="G33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="K33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="O33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34">
         <v>22</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
+      <c r="C34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="G34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="K34" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35">
         <v>23</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
+      <c r="C35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="G35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="K35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="O35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36">
         <v>24</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
+      <c r="C36" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="G36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="O36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37">
         <v>25</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36">
+      <c r="C37" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="G37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="K37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="O37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38">
         <v>26</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
+      <c r="C38" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="G38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="K38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="O38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39">
         <v>27</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
+      <c r="C39" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="G39" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="K39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="O39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40">
         <v>28</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
+      <c r="C40" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="G40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="K40" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="O40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41">
         <v>29</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="C41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="G41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="K41" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="O41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="G42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="K42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="O42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43">
+        <v>31</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="G43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="K43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="O43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44">
+        <v>32</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="G44" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="K44" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="O44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45">
+        <v>33</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="G45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="K45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="O45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46">
+        <v>34</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="G46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="O46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47">
+        <v>35</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="G47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="O47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48">
+        <v>36</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="G48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="O48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49">
+        <v>37</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="G49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="O49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50">
+        <v>38</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="G50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="K50" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="O50" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51">
+        <v>39</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="G51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="O51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="G52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="C53" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="O54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="C56" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58">
+        <v>41</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="G58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="K58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="O58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="G59" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="K59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60">
+        <v>43</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="G60" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="K60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="O60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61">
+        <v>44</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="G61" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="K61" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="O61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62">
+        <v>45</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="G62" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="K62" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="O62" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63">
+        <v>46</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="G63" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="K63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="O63" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64">
+        <v>47</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="G64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="K64" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="O64" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65">
+        <v>48</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="G65" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="K65" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="O65" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66">
+        <v>49</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="G66" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="K66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="O66" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67">
+        <v>50</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="G67" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="K67" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="O67" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68">
+        <v>51</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="G68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="K68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="O68" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69">
+        <v>52</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="G69" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="K69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="O69" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70">
+        <v>53</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="G70" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="K70" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="O70" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71">
+        <v>54</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="G71" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="K71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="O71" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72">
+        <v>55</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="G72" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="K72" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="O72" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73">
+        <v>56</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="G73" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="K73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="O73" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74">
+        <v>57</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="G74" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="K74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="O74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75">
+        <v>58</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="G75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="K75" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="O75" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76">
+        <v>59</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="G76" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="K76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="O76" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77">
+        <v>60</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="G77" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="K77" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="O77" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78">
+        <v>61</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="G78" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="K78" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="O78" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79">
+        <v>62</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="G79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="K79" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="O79" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80">
+        <v>63</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="G80" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="K80" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="O80" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81">
+        <v>64</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="G81" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="K81" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="O81" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
+  <mergeCells count="297">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="O83:Q83"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="O56:Q56"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="O81:Q81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="O82:Q82"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:M79"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:M80"/>
+    <mergeCell ref="O80:Q80"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="O62:Q62"/>
+    <mergeCell ref="O63:Q63"/>
+    <mergeCell ref="O64:Q64"/>
+    <mergeCell ref="O65:Q65"/>
+    <mergeCell ref="O66:Q66"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K62:M62"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="O60:Q60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="O61:Q61"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="O58:Q58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="O59:Q59"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="O57:Q57"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="O54:Q54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="O52:Q52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="O53:Q53"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="O47:Q47"/>
+    <mergeCell ref="O48:Q48"/>
+    <mergeCell ref="O49:Q49"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="O44:Q44"/>
+    <mergeCell ref="O45:Q45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="K27:M27"/>
     <mergeCell ref="K36:M36"/>
     <mergeCell ref="K37:M37"/>
     <mergeCell ref="K38:M38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="G42:I42"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K5:M5"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="K16:M16"/>
@@ -1219,8 +2891,8 @@
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G15:I15"/>
@@ -1229,7 +2901,7 @@
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C25:E25"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>

--- a/Recursos.xlsx
+++ b/Recursos.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Recursos Naturales" sheetId="1" r:id="rId1"/>
+    <sheet name="Productos" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="117">
   <si>
     <t>Recursos Naturales</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Granito</t>
-  </si>
-  <si>
-    <t>Contruccion</t>
   </si>
   <si>
     <t>Construccion</t>
@@ -858,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O83" sqref="O83:Q83"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,12 +927,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -945,17 +942,17 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="G9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -965,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -975,7 +972,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -985,17 +982,17 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1005,17 +1002,17 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="G12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="K12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1025,17 +1022,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="G13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="K13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1045,17 +1042,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="G14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="K14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1065,17 +1062,17 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="G15" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="K15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1085,17 +1082,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="G16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="K16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1105,17 +1102,17 @@
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -1125,17 +1122,17 @@
         <v>11</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="K18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1145,17 +1142,17 @@
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="K19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1165,17 +1162,17 @@
         <v>13</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="K20" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -1185,17 +1182,17 @@
         <v>14</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="G21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
@@ -1206,16 +1203,16 @@
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="9"/>
       <c r="G22" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
@@ -1225,17 +1222,17 @@
         <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="G23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="K23" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -1248,17 +1245,17 @@
         <v>17</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="G24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="K24" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -1289,12 +1286,12 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="O26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -1315,7 +1312,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="C28" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -1348,22 +1345,22 @@
         <v>18</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="G30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="K30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="O30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1373,22 +1370,22 @@
         <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="G31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="K31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="O31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -1398,22 +1395,22 @@
         <v>20</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="G32" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="K32" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="O32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -1423,22 +1420,22 @@
         <v>21</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="G33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="K33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="O33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -1448,22 +1445,22 @@
         <v>22</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="G34" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="K34" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="O34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -1473,22 +1470,22 @@
         <v>23</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="G35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="O35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -1498,22 +1495,22 @@
         <v>24</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="G36" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="O36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -1523,22 +1520,22 @@
         <v>25</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="G37" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="K37" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="O37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -1548,22 +1545,22 @@
         <v>26</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
       <c r="G38" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="K38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="O38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -1573,22 +1570,22 @@
         <v>27</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="G39" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="K39" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="O39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -1598,22 +1595,22 @@
         <v>28</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="G40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="K40" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="O40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -1623,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="G41" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="K41" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="O41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -1648,22 +1645,22 @@
         <v>30</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
       <c r="G42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="K42" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="O42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -1673,22 +1670,22 @@
         <v>31</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="G43" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="K43" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="O43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -1698,22 +1695,22 @@
         <v>32</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="G44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="K44" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="O44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1723,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="G45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="K45" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="O45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -1748,22 +1745,22 @@
         <v>34</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="G46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="O46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -1773,22 +1770,22 @@
         <v>35</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="G47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="O47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -1798,22 +1795,22 @@
         <v>36</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="G48" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="O48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -1823,22 +1820,22 @@
         <v>37</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="G49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="O49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -1848,22 +1845,22 @@
         <v>38</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
       <c r="G50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="K50" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="O50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -1873,22 +1870,22 @@
         <v>39</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="G51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="O51" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -1898,29 +1895,29 @@
         <v>40</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="G52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="O52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17">
       <c r="C53" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -1946,12 +1943,12 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="K54" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="O54" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -1972,7 +1969,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="C56" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -2005,22 +2002,22 @@
         <v>41</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
       <c r="G58" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="K58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="O58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -2030,22 +2027,22 @@
         <v>42</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
       <c r="G59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="K59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="O59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -2055,22 +2052,22 @@
         <v>43</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
       <c r="G60" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="K60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="O60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -2080,22 +2077,22 @@
         <v>44</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
       <c r="G61" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="K61" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="O61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -2105,22 +2102,22 @@
         <v>45</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16"/>
       <c r="G62" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="K62" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="O62" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
@@ -2130,22 +2127,22 @@
         <v>46</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D63" s="16"/>
       <c r="E63" s="16"/>
       <c r="G63" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="K63" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="O63" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
@@ -2155,22 +2152,22 @@
         <v>47</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D64" s="16"/>
       <c r="E64" s="16"/>
       <c r="G64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
       <c r="K64" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L64" s="11"/>
       <c r="M64" s="11"/>
       <c r="O64" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
@@ -2180,22 +2177,22 @@
         <v>48</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="G65" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
       <c r="K65" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L65" s="11"/>
       <c r="M65" s="11"/>
       <c r="O65" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
@@ -2205,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D66" s="16"/>
       <c r="E66" s="16"/>
       <c r="G66" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
       <c r="K66" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L66" s="11"/>
       <c r="M66" s="11"/>
       <c r="O66" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
@@ -2230,22 +2227,22 @@
         <v>50</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="16"/>
       <c r="G67" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="K67" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L67" s="11"/>
       <c r="M67" s="11"/>
       <c r="O67" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
@@ -2255,22 +2252,22 @@
         <v>51</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D68" s="16"/>
       <c r="E68" s="16"/>
       <c r="G68" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="K68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L68" s="11"/>
       <c r="M68" s="11"/>
       <c r="O68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
@@ -2280,22 +2277,22 @@
         <v>52</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D69" s="16"/>
       <c r="E69" s="16"/>
       <c r="G69" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="K69" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L69" s="11"/>
       <c r="M69" s="11"/>
       <c r="O69" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
@@ -2305,22 +2302,22 @@
         <v>53</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D70" s="16"/>
       <c r="E70" s="16"/>
       <c r="G70" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="K70" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L70" s="11"/>
       <c r="M70" s="11"/>
       <c r="O70" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
@@ -2330,22 +2327,22 @@
         <v>54</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="G71" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="K71" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
       <c r="O71" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
@@ -2355,22 +2352,22 @@
         <v>55</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="G72" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="K72" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L72" s="11"/>
       <c r="M72" s="11"/>
       <c r="O72" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
@@ -2380,22 +2377,22 @@
         <v>56</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="G73" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="K73" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L73" s="11"/>
       <c r="M73" s="11"/>
       <c r="O73" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
@@ -2405,22 +2402,22 @@
         <v>57</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="G74" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="K74" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
       <c r="O74" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
@@ -2430,22 +2427,22 @@
         <v>58</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
       <c r="G75" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="K75" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
       <c r="O75" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
@@ -2455,22 +2452,22 @@
         <v>59</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
       <c r="G76" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
       <c r="K76" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
       <c r="O76" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
@@ -2480,22 +2477,22 @@
         <v>60</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="G77" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
       <c r="K77" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="O77" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -2505,22 +2502,22 @@
         <v>61</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="G78" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="K78" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L78" s="11"/>
       <c r="M78" s="11"/>
       <c r="O78" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
@@ -2530,22 +2527,22 @@
         <v>62</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="G79" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
       <c r="K79" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="O79" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
@@ -2555,22 +2552,22 @@
         <v>63</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
       <c r="G80" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
       <c r="K80" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L80" s="11"/>
       <c r="M80" s="11"/>
       <c r="O80" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -2580,22 +2577,22 @@
         <v>64</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="G81" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
       <c r="K81" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="O81" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
